--- a/RESULTS/Double/SET 1/1/ENet BS BF.xlsx
+++ b/RESULTS/Double/SET 1/1/ENet BS BF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCGILL\WS16558\Py\RESULTS\SET 1\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCGILL\WS16558\Py\RESULTS\Double\SET 1\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="15" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="66">
   <si>
     <t>Feature index</t>
   </si>
@@ -94,12 +94,6 @@
     <t>001100</t>
   </si>
   <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
     <t>010155</t>
   </si>
   <si>
@@ -109,151 +103,133 @@
     <t>001101</t>
   </si>
   <si>
-    <t>030155</t>
+    <t>0401001157</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>0101001157</t>
+  </si>
+  <si>
+    <t>0201001157</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>0202001157</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>0401000156</t>
+  </si>
+  <si>
+    <t>0501000156</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>0505000156</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>0601000156</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>0605000156</t>
+  </si>
+  <si>
+    <t>0101010156</t>
+  </si>
+  <si>
+    <t>0301011156</t>
   </si>
   <si>
     <t>003101</t>
   </si>
   <si>
+    <t>0101111156</t>
+  </si>
+  <si>
+    <t>0101010157</t>
+  </si>
+  <si>
+    <t>0301000156</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>0202111156</t>
+  </si>
+  <si>
+    <t>0606000156</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>0202010156</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>0501011156</t>
+  </si>
+  <si>
+    <t>0404000156</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
     <t>011155</t>
   </si>
   <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>0604000166</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>0505000166</t>
-  </si>
-  <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>0201011166</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>0301011166</t>
-  </si>
-  <si>
-    <t>0101010166</t>
-  </si>
-  <si>
-    <t>0402011166</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>0303001167</t>
-  </si>
-  <si>
-    <t>003100</t>
-  </si>
-  <si>
-    <t>0101111166</t>
-  </si>
-  <si>
-    <t>0504000166</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>0303011166</t>
-  </si>
-  <si>
-    <t>0503011166</t>
-  </si>
-  <si>
-    <t>0101011167</t>
-  </si>
-  <si>
-    <t>0603011166</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>0602001167</t>
-  </si>
-  <si>
-    <t>0301001167</t>
-  </si>
-  <si>
-    <t>0603001167</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>0503001167</t>
-  </si>
-  <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>0202011166</t>
-  </si>
-  <si>
-    <t>0202010166</t>
-  </si>
-  <si>
-    <t>0404000166</t>
-  </si>
-  <si>
-    <t>004100</t>
-  </si>
-  <si>
-    <t>0603000166</t>
-  </si>
-  <si>
-    <t>0403000166</t>
-  </si>
-  <si>
-    <t>0606000166</t>
-  </si>
-  <si>
-    <t>0101010167</t>
-  </si>
-  <si>
-    <t>0101001167</t>
+    <t>0402000156</t>
+  </si>
+  <si>
+    <t>0303000156</t>
+  </si>
+  <si>
+    <t>0201011156</t>
+  </si>
+  <si>
+    <t>0101000156</t>
+  </si>
+  <si>
+    <t>0602000156</t>
+  </si>
+  <si>
+    <t>0201000156</t>
+  </si>
+  <si>
+    <t>0202000156</t>
+  </si>
+  <si>
+    <t>0202011156</t>
+  </si>
+  <si>
+    <t>0401011156</t>
+  </si>
+  <si>
+    <t>0504000156</t>
   </si>
 </sst>
 </file>
@@ -309,10 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -698,19 +677,19 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22385768380527721</v>
+        <v>0.1075998947381025</v>
       </c>
       <c r="N2">
-        <v>6.9942075373882089E-8</v>
+        <v>8.0009712720599225E-8</v>
       </c>
       <c r="O2">
-        <v>2.6446564119726799E-4</v>
+        <v>2.8285988178000638E-4</v>
       </c>
       <c r="P2">
-        <v>0.9654046775004389</v>
+        <v>0.95261477525791971</v>
       </c>
       <c r="Q2">
-        <v>-11123.54346252307</v>
+        <v>-10963.914952951491</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -718,28 +697,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>-225.6909725714435</v>
+        <v>-5.0414197477102352E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -747,16 +726,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -764,11 +743,23 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>-0.13265979438478351</v>
+        <v>0.67863779332493346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -776,28 +767,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>-3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>-0.78861395263018852</v>
+        <v>0.5699494493337085</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -805,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -822,11 +825,23 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>7.5783984832641677E-2</v>
+        <v>-2.629548104633586</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -834,28 +849,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>1.6981430459530049</v>
+        <v>2.1848275569159199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -863,28 +890,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1351778529680133</v>
+        <v>41.876127473316217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -892,40 +931,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9">
-        <v>199.0883700665637</v>
+        <v>-156.83007363768581</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -933,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -948,10 +987,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>-5</v>
@@ -960,13 +999,13 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>-121.2324550940961</v>
+        <v>381.53313503732011</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -974,25 +1013,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1001,13 +1040,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.40462845385161472</v>
+        <v>167.47024506925879</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1015,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>-1.171545083807104</v>
+        <v>-845.50561525508181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1056,13 +1095,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1071,10 +1110,10 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1083,13 +1122,13 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
-        <v>0.25840559644994698</v>
+        <v>7.1916236658779553E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1097,40 +1136,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14">
-        <v>0.45814462341898832</v>
+        <v>-0.38916174921725138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,40 +1177,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15">
-        <v>0.83073767556031441</v>
+        <v>2.989048671469163E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1179,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1194,10 +1233,10 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1206,13 +1245,13 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16">
-        <v>-0.1321980552953903</v>
+        <v>-0.1929181823390991</v>
       </c>
     </row>
   </sheetData>
@@ -1283,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1298,25 +1337,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.2245406875690934</v>
+        <v>-1.873789531058127E-2</v>
       </c>
       <c r="N2">
-        <v>1.7106029524290619E-7</v>
+        <v>3.4150529463641468E-7</v>
       </c>
       <c r="O2">
-        <v>4.1359436074843458E-4</v>
+        <v>5.843845434612509E-4</v>
       </c>
       <c r="P2">
-        <v>0.91538875492092786</v>
+        <v>0.79774574127685138</v>
       </c>
       <c r="Q2">
-        <v>-10079.951563594481</v>
+        <v>-9259.3225738915444</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1324,28 +1363,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.1113558143902917</v>
+        <v>0.25513125429441419</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1353,16 +1404,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1370,11 +1421,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>5.5678655443259541E-2</v>
+        <v>-0.43487393253247469</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1382,13 +1445,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>-2</v>
@@ -1397,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>-2</v>
@@ -1409,13 +1472,13 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>-0.1053312184790802</v>
+        <v>0.61665259111094339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1423,28 +1486,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -1453,10 +1516,10 @@
         <v>26</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>16.523880643027169</v>
+        <v>-0.31748319425830579</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1464,28 +1527,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>0.1194036158341306</v>
+        <v>0.3822518668595512</v>
       </c>
     </row>
   </sheetData>
@@ -1556,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1571,25 +1646,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.24016527043583061</v>
+        <v>-9.8391352806205482E-3</v>
       </c>
       <c r="N2">
-        <v>1.779386542045497E-7</v>
+        <v>4.100975201439911E-7</v>
       </c>
       <c r="O2">
-        <v>4.2182775418949108E-4</v>
+        <v>6.4038856965438647E-4</v>
       </c>
       <c r="P2">
-        <v>0.91198652464289032</v>
+        <v>0.75712244804511408</v>
       </c>
       <c r="Q2">
-        <v>-10035.156755216351</v>
+        <v>-9044.0638243538742</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1597,28 +1672,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.11912843171493991</v>
+        <v>0.2095664843915768</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1626,28 +1713,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>5.9189751046493273E-2</v>
+        <v>-0.16338620329407411</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1655,28 +1754,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1685,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>36.66087523691931</v>
+        <v>0.2916773666780102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1696,40 +1795,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>-4.4812707126297946</v>
+        <v>-9.6627332521588061E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1741,6 +1840,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.2418136690665782</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.8084977292469441E-7</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.2526435651803039E-4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.89289291458255016</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-10017.89429583359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>67.11233064484523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-0.24170208364320439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-23.830605993102498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1817,23 +2175,35 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.28404595023457607</v>
+        <v>0.28630725418436842</v>
       </c>
       <c r="N2">
-        <v>2.552062691130566E-7</v>
+        <v>2.5287651319247921E-7</v>
       </c>
       <c r="O2">
-        <v>5.0517944248856426E-4</v>
+        <v>5.0286828612717193E-4</v>
       </c>
       <c r="P2">
-        <v>0.87376778374562081</v>
+        <v>0.85023555263267137</v>
       </c>
       <c r="Q2">
-        <v>-9609.0850695795489</v>
+        <v>-9621.9708533768953</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1841,28 +2211,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.14006227769452301</v>
+        <v>-0.28805174442851578</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1870,219 +2252,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>-6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>6.8890197006513054E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>-6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>-6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>44.728574227576388</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>-8.7394378199501507E-2</v>
-      </c>
-      <c r="J2">
-        <v>4.5989632090500687E-7</v>
-      </c>
-      <c r="K2">
-        <v>6.7815656076234115E-4</v>
-      </c>
-      <c r="L2">
-        <v>0.7725223128850478</v>
-      </c>
-      <c r="M2">
-        <v>-8912.0263963347152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4.3453764027489281E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.175170999993184</v>
+        <v>50.116809855092953</v>
       </c>
     </row>
   </sheetData>
@@ -2153,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -2168,10 +2371,10 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -2180,25 +2383,25 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2">
-        <v>-0.16875392798208419</v>
+        <v>-0.1674304012914162</v>
       </c>
       <c r="N2">
-        <v>5.6121377867862684E-7</v>
+        <v>3.792045134438158E-7</v>
       </c>
       <c r="O2">
-        <v>7.4914202837554568E-4</v>
+        <v>6.1579583746873101E-4</v>
       </c>
       <c r="P2">
-        <v>0.72240784162040295</v>
+        <v>0.77541862754220048</v>
       </c>
       <c r="Q2">
-        <v>-8677.6937166369444</v>
+        <v>-9143.028848378699</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2206,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2224,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -2233,13 +2436,13 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>0.16755337671824089</v>
+        <v>0.16622190064138731</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2331,19 +2534,19 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.23074635550291861</v>
+        <v>4.1108712370925282E-2</v>
       </c>
       <c r="N2">
-        <v>7.4706984445848077E-8</v>
+        <v>9.2097809428099945E-8</v>
       </c>
       <c r="O2">
-        <v>2.7332578445117122E-4</v>
+        <v>3.0347620899849782E-4</v>
       </c>
       <c r="P2">
-        <v>0.96304781912664084</v>
+        <v>0.94545567969674471</v>
       </c>
       <c r="Q2">
-        <v>-11047.312823439161</v>
+        <v>-10798.900347190531</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2351,28 +2554,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.13820024968841099</v>
+        <v>-2.9769877202067901E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2380,28 +2583,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>-0.52865906329972723</v>
+        <v>0.59629856007540472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2409,16 +2624,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2426,11 +2641,23 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>7.9019429855060677E-2</v>
+        <v>-2.3940316043091028</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2438,28 +2665,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.0013953781036651</v>
+        <v>2.022880824770954</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2467,13 +2706,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>-3</v>
@@ -2482,13 +2721,25 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>0.16125678716703079</v>
+        <v>5.6505474482402347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2496,40 +2747,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>69.820740626134821</v>
+        <v>-8.4331130021894332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2537,40 +2788,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9">
-        <v>-84.086768520204785</v>
+        <v>1.3497198580544319E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2578,40 +2829,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.2267935172253264</v>
+        <v>112.5747732878668</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2619,40 +2870,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>-0.72507966329054341</v>
+        <v>-265.82388203584429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2660,40 +2911,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
-        <v>0.2663916945862892</v>
+        <v>0.22315059905357509</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2701,40 +2952,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13">
-        <v>0.26786827703703148</v>
+        <v>-0.32808484796295551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2742,13 +2993,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -2757,10 +3008,10 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -2769,13 +3020,13 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
-        <v>-0.12576245339705139</v>
+        <v>-0.23927374559558781</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2783,28 +3034,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>-75.336317817041589</v>
+        <v>4.4316859168247902E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2896,19 +3159,19 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22338685075672399</v>
+        <v>4.4120438131132519E-2</v>
       </c>
       <c r="N2">
-        <v>8.5008396206632374E-8</v>
+        <v>9.5309130842758162E-8</v>
       </c>
       <c r="O2">
-        <v>2.915619937622741E-4</v>
+        <v>3.0872176930491662E-4</v>
       </c>
       <c r="P2">
-        <v>0.95795245042103649</v>
+        <v>0.94355379576567722</v>
       </c>
       <c r="Q2">
-        <v>-10895.98038583412</v>
+        <v>-10760.216563912711</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2916,28 +3179,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.13677167269032781</v>
+        <v>-3.1287361812831448E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2945,13 +3208,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -2960,13 +3223,25 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>8.0705382811655971E-2</v>
+        <v>0.5983554694861829</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2974,28 +3249,40 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.62970218696157476</v>
+        <v>-2.3649645864521571</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3003,28 +3290,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.27358876826712297</v>
+        <v>2.0143375887213399</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3032,40 +3331,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>14.94882176658745</v>
+        <v>5.464848104066431</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3073,40 +3372,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>-3.7883897734480461</v>
+        <v>-8.2356441970385124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3114,40 +3413,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>-0.79732238010000289</v>
+        <v>13.97688967893559</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3155,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>-6</v>
@@ -3170,13 +3469,25 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>-6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>-0.67611189395911486</v>
+        <v>-29.271487348798679</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3184,40 +3495,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1.561947339188964</v>
+        <v>0.2104736144116082</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3225,25 +3536,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3252,13 +3563,13 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>-0.22405632360178721</v>
+        <v>-0.34082496588352379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3266,40 +3577,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>-1.3981678159802911</v>
+        <v>-0.2359467666464532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3307,25 +3618,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3334,13 +3645,13 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14">
-        <v>0.1027525431624117</v>
+        <v>8.4344668037092951E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3411,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -3426,25 +3737,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.20915719338736249</v>
+        <v>-1.2826840931238919E-3</v>
       </c>
       <c r="N2">
-        <v>8.8063467466438835E-8</v>
+        <v>1.091537002915721E-7</v>
       </c>
       <c r="O2">
-        <v>2.9675489459558851E-4</v>
+        <v>3.3038417076423638E-4</v>
       </c>
       <c r="P2">
-        <v>0.95644132603807863</v>
+        <v>0.93535444080635755</v>
       </c>
       <c r="Q2">
-        <v>-10856.070092258989</v>
+        <v>-10601.222132760629</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3452,28 +3763,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.12537317721648819</v>
+        <v>-1.437204754234137E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3481,13 +3792,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -3496,13 +3807,25 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>7.3158472421787496E-2</v>
+        <v>0.57428345470840225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3510,28 +3833,40 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.78001587593005384</v>
+        <v>-2.1086578600581549</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3539,28 +3874,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.30017653657906729</v>
+        <v>1.8247039538803169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3568,13 +3915,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>-3</v>
@@ -3583,10 +3930,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -3595,13 +3942,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>-0.88894580321829975</v>
+        <v>6.2264949797995683</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3609,28 +3956,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>-0.65832077698258962</v>
+        <v>-13.02169814984668</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3638,40 +3997,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>1.200052461425213</v>
+        <v>9.2152315328315542</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3679,40 +4038,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>-0.19991351594560891</v>
+        <v>26.313459819476861</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3720,40 +4079,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
-        <v>-0.73318628219871429</v>
+        <v>-0.36109626047868559</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3761,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -3776,10 +4135,10 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3788,13 +4147,13 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>8.8039985262968079E-2</v>
+        <v>-0.2790471828536365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3802,40 +4161,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>8.398618298666376</v>
+        <v>0.15909859939883481</v>
       </c>
     </row>
   </sheetData>
@@ -3906,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -3921,25 +4280,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.25116447669991587</v>
+        <v>-2.0357796374214789E-2</v>
       </c>
       <c r="N2">
-        <v>1.11911447781895E-7</v>
+        <v>1.4002789211511889E-7</v>
       </c>
       <c r="O2">
-        <v>3.345316842720507E-4</v>
+        <v>3.7420300922777049E-4</v>
       </c>
       <c r="P2">
-        <v>0.94464544257928618</v>
+        <v>0.91706940429588146</v>
       </c>
       <c r="Q2">
-        <v>-10573.605378413309</v>
+        <v>-10307.558654680421</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3947,28 +4306,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.16134599460922819</v>
+        <v>0.60183353192285216</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3976,16 +4347,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -3993,11 +4364,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>9.8843352016502656E-2</v>
+        <v>-1.796852982992496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4005,28 +4388,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.94152938825706112</v>
+        <v>1.665948239095739</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4034,13 +4429,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>-3</v>
@@ -4049,13 +4444,25 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.35299995385091371</v>
+        <v>4.9029587008032207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4063,25 +4470,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -4090,13 +4497,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>-1.0635478375792859</v>
+        <v>-8.7775726373723693</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4104,28 +4511,40 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>-1.1222048215829361</v>
+        <v>4.0994228275360989</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4133,40 +4552,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2.2502269390697691</v>
+        <v>6.0781916909122928E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4174,13 +4593,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -4189,10 +4608,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -4201,13 +4620,13 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>-0.3017689519754107</v>
+        <v>-0.18128108080588939</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,25 +4634,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -4242,13 +4661,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
-        <v>0.13625259104813181</v>
+        <v>-0.23732773070866209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4256,40 +4675,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>-1.544086511902371</v>
+        <v>-6.354726838454372E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4301,12 +4720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -4363,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -4378,25 +4794,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.26668981746594472</v>
+        <v>-2.503468307708847E-2</v>
       </c>
       <c r="N2">
-        <v>8.4620627914127563E-8</v>
+        <v>1.4293663879913211E-7</v>
       </c>
       <c r="O2">
-        <v>2.9089624939852279E-4</v>
+        <v>3.7806962162957781E-4</v>
       </c>
       <c r="P2">
-        <v>0.95814425155165195</v>
+        <v>0.91534671825373715</v>
       </c>
       <c r="Q2">
-        <v>-10907.407308111769</v>
+        <v>-10285.154154764021</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4404,28 +4820,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.15811125332711659</v>
+        <v>0.52921905082979825</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4433,16 +4861,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4450,11 +4878,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>9.133331148519129E-2</v>
+        <v>-1.6055053566102231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4462,28 +4902,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.51693057687171839</v>
+        <v>1.4354466846423579</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4491,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>-3</v>
@@ -4506,13 +4958,25 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.20162035830419481</v>
+        <v>4.9095896961564964</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4520,25 +4984,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -4547,13 +5011,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>-0.44479397973472562</v>
+        <v>-11.119605426588439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4561,40 +5025,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>-0.23638796692695879</v>
+        <v>8.8664515014956304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4602,13 +5066,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -4617,10 +5081,10 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -4629,13 +5093,13 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9">
-        <v>-0.2195053995244772</v>
+        <v>-0.22644436598783579</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4643,25 +5107,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -4670,13 +5134,13 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.1020730629766632</v>
+        <v>-0.1816628042745429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4684,40 +5148,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11">
-        <v>28.708488308605379</v>
+        <v>7.617688161388303E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4788,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -4803,25 +5255,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.21402032168184201</v>
+        <v>-2.0301110151726851E-2</v>
       </c>
       <c r="N2">
-        <v>8.9054409148229878E-8</v>
+        <v>1.4694500818452409E-7</v>
       </c>
       <c r="O2">
-        <v>2.9841985381041572E-4</v>
+        <v>3.8333406864577552E-4</v>
       </c>
       <c r="P2">
-        <v>0.95595117834262411</v>
+        <v>0.91297278791806213</v>
       </c>
       <c r="Q2">
-        <v>-10848.78786381375</v>
+        <v>-10254.32532418383</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4829,28 +5281,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.1256648560389596</v>
+        <v>0.57046981912475181</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4858,16 +5322,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4875,11 +5339,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>7.1216039490045194E-2</v>
+        <v>-1.698227910858193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4887,28 +5363,40 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.54313999785350142</v>
+        <v>1.435336535803805</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4916,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>-3</v>
@@ -4931,13 +5419,25 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.15788013585599389</v>
+        <v>4.3867302347849728</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4945,25 +5445,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -4972,13 +5472,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>-0.36256434885733618</v>
+        <v>-9.1457399358223608</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4986,16 +5486,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -5004,22 +5504,22 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.15557593423024349</v>
+        <v>7.107471665123315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5027,40 +5527,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>8.6319068508897221</v>
+        <v>-0.16266477518042149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5068,13 +5568,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -5083,10 +5583,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -5095,13 +5595,13 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>-8.0704987887127252E-2</v>
+        <v>-0.23435462143444491</v>
       </c>
     </row>
   </sheetData>
@@ -5172,13 +5672,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -5187,25 +5687,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.21502666428600711</v>
+        <v>-2.131669188014319E-2</v>
       </c>
       <c r="N2">
-        <v>1.154159343865637E-7</v>
+        <v>2.6040367756172369E-7</v>
       </c>
       <c r="O2">
-        <v>3.3972920743816488E-4</v>
+        <v>5.1029763624939881E-4</v>
       </c>
       <c r="P2">
-        <v>0.94291202469547575</v>
+        <v>0.84577763917217963</v>
       </c>
       <c r="Q2">
-        <v>-10543.004814589851</v>
+        <v>-9577.1540619117186</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5213,28 +5713,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.11132210247727189</v>
+        <v>0.29597830251613538</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5242,16 +5754,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5259,11 +5771,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>5.4352013141721132E-2</v>
+        <v>-0.62866252732003647</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5271,28 +5795,40 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.2622949507921582</v>
+        <v>1.2435657113429499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5300,28 +5836,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.28580132235898192</v>
+        <v>-20.44419779069878</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5329,40 +5877,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>-0.32730577623221191</v>
+        <v>5.3917100239749027</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5370,40 +5918,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>20.447966690796889</v>
+        <v>-0.28668936556911162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5411,25 +5959,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -5438,13 +5986,13 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>5.785297251935085E-2</v>
+        <v>-1.4169928957743379E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5515,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -5530,25 +6078,25 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.22796161962792441</v>
+        <v>-1.66745246404197E-2</v>
       </c>
       <c r="N2">
-        <v>1.2821884679053581E-7</v>
+        <v>2.673804949003443E-7</v>
       </c>
       <c r="O2">
-        <v>3.5807659346924058E-4</v>
+        <v>5.1708847879288931E-4</v>
       </c>
       <c r="P2">
-        <v>0.936579343241839</v>
+        <v>0.84164566511136218</v>
       </c>
       <c r="Q2">
-        <v>-10420.137019698799</v>
+        <v>-9547.770155219936</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5556,28 +6104,40 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
-        <v>-0.1124975529209722</v>
+        <v>0.22790078804318251</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5585,16 +6145,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5602,11 +6162,23 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>5.5938606317706932E-2</v>
+        <v>-0.48065685434488381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5614,13 +6186,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>-2</v>
@@ -5629,10 +6201,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>-2</v>
@@ -5641,13 +6213,13 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.29500549788007652</v>
+        <v>0.99442414722339745</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5655,40 +6227,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>-0.24318233562048269</v>
+        <v>1.947584286629056</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5696,40 +6268,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>5.804554460629852</v>
+        <v>-0.2143268910658348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5737,28 +6309,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>0.24705871643909341</v>
+        <v>-1.537017165398424E-2</v>
       </c>
     </row>
   </sheetData>
